--- a/DSA.xlsx
+++ b/DSA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10\Documents\GitHub\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8379AB-70FE-419A-BCE6-01DAC5168CE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B9B1A3-EBB1-4059-944F-864E3106FDC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{794832D2-3683-4CE7-B7AA-E836527B8CEF}"/>
   </bookViews>
@@ -1030,7 +1030,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1052,6 +1052,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,7 +1090,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1106,6 +1112,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1424,7 +1434,7 @@
   <dimension ref="A1:B305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,131 +1458,131 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="12" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="12" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="12" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="12" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="12" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="12" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="12" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="12" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="12" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>303</v>
+      <c r="B15" s="12" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>303</v>
+      <c r="B16" s="12" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>303</v>
+      <c r="B17" s="12" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>303</v>
+      <c r="B18" s="12" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">

--- a/DSA.xlsx
+++ b/DSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10\Documents\GitHub\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B9B1A3-EBB1-4059-944F-864E3106FDC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B538A33-56AF-48DA-8FF6-7D194FA27F3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{794832D2-3683-4CE7-B7AA-E836527B8CEF}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="305">
   <si>
     <t>Linked List:</t>
   </si>
@@ -1434,7 +1434,7 @@
   <dimension ref="A1:B305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1590,39 +1590,37 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>303</v>
-      </c>
+      <c r="B20" s="8"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>303</v>
+      <c r="B21" s="12" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>303</v>
+      <c r="B22" s="12" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>303</v>
+      <c r="B23" s="12" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
